--- a/suvenir/static/orders.xlsx
+++ b/suvenir/static/orders.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="21120" yWindow="705" windowWidth="15060" windowHeight="4650" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -1000,6 +1000,130 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>97</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Маэстро</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2023-05-26 12:14:53.045732</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2023-05-25 19:57:37.253898+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>99</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Добрый спрайт</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2023-05-26 13:31:02.897192</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2023-05-26 08:28:41.333340+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>100</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ажиотаж</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2023-05-26 13:31:02.921199</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2023-05-26 08:30:46.069743+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>101</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Филадельфия классика</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2023-05-26 13:31:02.941220</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2023-05-26 08:30:51.500694+00:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
